--- a/Output/wyniki_testy_genetic/WyspowyWyniki.xlsx
+++ b/Output/wyniki_testy_genetic/WyspowyWyniki.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Radek\source\repos\PEA\Output\wyniki_testy_genetic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30E676A7-16C0-441E-AB94-DBB6E473BFD2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13F3B768-E84D-4C64-98A4-630428767A64}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6366" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6365" uniqueCount="60">
   <si>
     <t>Instancja</t>
   </si>
@@ -39163,7 +39163,7 @@
   <dimension ref="A1:AB351"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:Q301"/>
+      <selection activeCell="T24" sqref="T24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -39213,8 +39213,8 @@
       </c>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>58</v>
+      <c r="A2">
+        <v>16</v>
       </c>
       <c r="B2">
         <v>5563</v>
